--- a/doc/Metricas/Tareas Esfuerzo.xlsx
+++ b/doc/Metricas/Tareas Esfuerzo.xlsx
@@ -1,16 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="313" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="3" r:id="rId1"/>
     <sheet name="Por CU" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja4" sheetId="7" r:id="rId3"/>
-    <sheet name="Hoja1" sheetId="8" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="__xlnm._FilterDatabase">#REF!</definedName>
@@ -18,17 +16,17 @@
   </definedNames>
   <calcPr calcId="125725" iterateDelta="1E-4"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
-    <pivotCache cacheId="1" r:id="rId6"/>
-    <pivotCache cacheId="2" r:id="rId7"/>
-    <pivotCache cacheId="3" r:id="rId8"/>
-    <pivotCache cacheId="4" r:id="rId9"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
+    <pivotCache cacheId="1" r:id="rId4"/>
+    <pivotCache cacheId="3" r:id="rId5"/>
+    <pivotCache cacheId="4" r:id="rId6"/>
+    <pivotCache cacheId="57" r:id="rId7"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="119">
   <si>
     <t>Etapa</t>
   </si>
@@ -79,9 +77,6 @@
   </si>
   <si>
     <t>Prueba de concepto (Interfaz web)</t>
-  </si>
-  <si>
-    <t>Investigación de framework MVC (REST)</t>
   </si>
   <si>
     <t>Investigación Android</t>
@@ -321,9 +316,6 @@
     <t>Pruebas y Ajustes</t>
   </si>
   <si>
-    <t>Actividad</t>
-  </si>
-  <si>
     <t>Etapa 1 - It 0</t>
   </si>
   <si>
@@ -337,9 +329,6 @@
   </si>
   <si>
     <t>Etapa 3 - It 0</t>
-  </si>
-  <si>
-    <t>Cus</t>
   </si>
   <si>
     <t>CU01</t>
@@ -392,12 +381,15 @@
   <si>
     <t>CU15</t>
   </si>
+  <si>
+    <t>Investigación de REST</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -436,33 +428,11 @@
     <font>
       <b/>
       <sz val="10"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -485,18 +455,6 @@
       <patternFill patternType="solid">
         <fgColor indexed="44"/>
         <bgColor indexed="24"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor theme="4" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
   </fills>
@@ -741,7 +699,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -788,7 +746,7 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -815,29 +773,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
@@ -1004,7 +939,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>690</c:v>
+                  <c:v>715</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>337</c:v>
@@ -1016,30 +951,30 @@
                   <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>599</c:v>
+                  <c:v>699</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="96695424"/>
-        <c:axId val="96696960"/>
+        <c:axId val="54642176"/>
+        <c:axId val="54643712"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="96695424"/>
+        <c:axId val="54642176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96696960"/>
+        <c:crossAx val="54643712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96696960"/>
+        <c:axId val="54643712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1047,7 +982,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96695424"/>
+        <c:crossAx val="54642176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1056,7 +991,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1279,24 +1214,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="98255232"/>
-        <c:axId val="98256768"/>
+        <c:axId val="55857920"/>
+        <c:axId val="55859456"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="98255232"/>
+        <c:axId val="55857920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98256768"/>
+        <c:crossAx val="55859456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="98256768"/>
+        <c:axId val="55859456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1304,7 +1239,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98255232"/>
+        <c:crossAx val="55857920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1313,7 +1248,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1946,24 +1881,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="98303360"/>
-        <c:axId val="98112640"/>
+        <c:axId val="56242176"/>
+        <c:axId val="56243712"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="98303360"/>
+        <c:axId val="56242176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98112640"/>
+        <c:crossAx val="56243712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="98112640"/>
+        <c:axId val="56243712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1971,7 +1906,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98303360"/>
+        <c:crossAx val="56242176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1984,7 +1919,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2641,24 +2576,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="98142848"/>
-        <c:axId val="98156928"/>
+        <c:axId val="56265728"/>
+        <c:axId val="56288000"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="98142848"/>
+        <c:axId val="56265728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98156928"/>
+        <c:crossAx val="56288000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="98156928"/>
+        <c:axId val="56288000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2666,7 +2601,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98142848"/>
+        <c:crossAx val="56265728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2679,7 +2614,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2789,7 +2724,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>690</c:v>
+                  <c:v>715</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>337</c:v>
@@ -2801,7 +2736,7 @@
                   <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>599</c:v>
+                  <c:v>699</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2818,7 +2753,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2879,13 +2814,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.32373113854595337</c:v>
+                  <c:v>0.3129973474801061</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.66850828729281764</c:v>
+                  <c:v>0.72006220839813373</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2938,7 +2873,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.67626886145404663</c:v>
+                  <c:v>0.6870026525198939</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.13107119095143047</c:v>
@@ -3121,32 +3056,32 @@
                   <c:v>0.14637391882900866</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="0.00">
-                  <c:v>0.33149171270718231</c:v>
+                  <c:v>0.27993779160186627</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="96910720"/>
-        <c:axId val="96920704"/>
+        <c:axId val="54845440"/>
+        <c:axId val="54846976"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="96910720"/>
+        <c:axId val="54845440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96920704"/>
+        <c:crossAx val="54846976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96920704"/>
+        <c:axId val="54846976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3154,7 +3089,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96910720"/>
+        <c:crossAx val="54845440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3167,7 +3102,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3247,7 +3182,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>363</c:v>
+                  <c:v>463</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3306,7 +3241,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>493</c:v>
+                  <c:v>518</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>99</c:v>
@@ -3538,24 +3473,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="96947584"/>
-        <c:axId val="96969856"/>
+        <c:axId val="54898688"/>
+        <c:axId val="54900224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="96947584"/>
+        <c:axId val="54898688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96969856"/>
+        <c:crossAx val="54900224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96969856"/>
+        <c:axId val="54900224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3563,7 +3498,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96947584"/>
+        <c:crossAx val="54898688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3576,7 +3511,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3643,7 +3578,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>363</c:v>
+                  <c:v>463</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3696,7 +3631,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>493</c:v>
+                  <c:v>518</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>197</c:v>
@@ -3886,24 +3821,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="97652096"/>
-        <c:axId val="97657984"/>
+        <c:axId val="55582720"/>
+        <c:axId val="55584256"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="97652096"/>
+        <c:axId val="55582720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97657984"/>
+        <c:crossAx val="55584256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97657984"/>
+        <c:axId val="55584256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3911,19 +3846,20 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97652096"/>
+        <c:crossAx val="55582720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4009,7 +3945,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.32</c:v>
+                  <c:v>0.31</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -4021,7 +3957,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.67</c:v>
+                  <c:v>0.72</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4080,7 +4016,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.68</c:v>
+                  <c:v>0.69</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.14000000000000001</c:v>
@@ -4305,31 +4241,31 @@
                   <c:v>0.33</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.33</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="97701248"/>
-        <c:axId val="97711232"/>
+        <c:axId val="55631872"/>
+        <c:axId val="55633408"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="97701248"/>
+        <c:axId val="55631872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97711232"/>
+        <c:crossAx val="55633408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97711232"/>
+        <c:axId val="55633408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.8"/>
@@ -4338,7 +4274,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97701248"/>
+        <c:crossAx val="55631872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4351,7 +4287,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4386,7 +4322,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.19437400058807452"/>
-          <c:y val="3.0107516685287727E-2"/>
+          <c:y val="3.0107516685287734E-2"/>
         </c:manualLayout>
       </c:layout>
     </c:title>
@@ -4695,24 +4631,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="97952512"/>
-        <c:axId val="97954048"/>
+        <c:axId val="55817344"/>
+        <c:axId val="55818880"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="97952512"/>
+        <c:axId val="55817344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97954048"/>
+        <c:crossAx val="55818880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97954048"/>
+        <c:axId val="55818880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4720,7 +4656,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97952512"/>
+        <c:crossAx val="55817344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4733,7 +4669,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5350,24 +5286,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="98050048"/>
-        <c:axId val="98051584"/>
+        <c:axId val="56119680"/>
+        <c:axId val="56121216"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="98050048"/>
+        <c:axId val="56119680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98051584"/>
+        <c:crossAx val="56121216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="98051584"/>
+        <c:axId val="56121216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5375,7 +5311,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98050048"/>
+        <c:crossAx val="56119680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5388,7 +5324,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5639,24 +5575,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="98082176"/>
-        <c:axId val="98092160"/>
+        <c:axId val="56156160"/>
+        <c:axId val="56157696"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="98082176"/>
+        <c:axId val="56156160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98092160"/>
+        <c:crossAx val="56157696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="98092160"/>
+        <c:axId val="56157696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5664,7 +5600,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98082176"/>
+        <c:crossAx val="56156160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5677,7 +5613,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6252,52 +6188,6 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Martin Loureiro" refreshedDate="40991.208823379631" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="37">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="C2:I39" sheet="General"/>
-  </cacheSource>
-  <cacheFields count="7">
-    <cacheField name="Etapa" numFmtId="0">
-      <sharedItems count="4">
-        <s v="Etapa 1"/>
-        <s v="Etapa 2"/>
-        <s v="Etapa 3"/>
-        <s v="Etapa3" u="1"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Tipo" numFmtId="0">
-      <sharedItems count="9">
-        <s v="Documentación"/>
-        <s v="Investigación"/>
-        <s v="Analisis y Diseño"/>
-        <s v="Construcción"/>
-        <s v="Pruebas y Ajustes"/>
-        <s v="Diseño" u="1"/>
-        <s v="Pruebas" u="1"/>
-        <s v="Analisis" u="1"/>
-        <s v="Codificación" u="1"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Fase" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="Tarea" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="Horas" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="6" maxValue="382"/>
-    </cacheField>
-    <cacheField name="Antonio" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2" maxValue="195"/>
-    </cacheField>
-    <cacheField name="Martín" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2" maxValue="187"/>
-    </cacheField>
-  </cacheFields>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Martin Loureiro" refreshedDate="40991.348535300924" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="17">
   <cacheSource type="worksheet">
     <worksheetSource ref="B3:I20" sheet="Por CU"/>
@@ -6358,7 +6248,7 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Martin Loureiro" refreshedDate="40991.37446608796" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="17">
   <cacheSource type="worksheet">
     <worksheetSource ref="B173:G190" sheet="Por CU"/>
@@ -6403,6 +6293,52 @@
     </cacheField>
     <cacheField name="Pruebas y ajustes" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="5" maxValue="30"/>
+    </cacheField>
+  </cacheFields>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Martin Loureiro" refreshedDate="41048.778987384256" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="37">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="C2:I39" sheet="General"/>
+  </cacheSource>
+  <cacheFields count="7">
+    <cacheField name="Etapa" numFmtId="0">
+      <sharedItems count="4">
+        <s v="Etapa 1"/>
+        <s v="Etapa 2"/>
+        <s v="Etapa 3"/>
+        <s v="Etapa3" u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Tipo" numFmtId="0">
+      <sharedItems count="9">
+        <s v="Documentación"/>
+        <s v="Investigación"/>
+        <s v="Analisis y Diseño"/>
+        <s v="Construcción"/>
+        <s v="Pruebas y Ajustes"/>
+        <s v="Diseño" u="1"/>
+        <s v="Pruebas" u="1"/>
+        <s v="Analisis" u="1"/>
+        <s v="Codificación" u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Fase" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Tarea" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Horas" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="6" maxValue="400"/>
+    </cacheField>
+    <cacheField name="Antonio" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2" maxValue="200"/>
+    </cacheField>
+    <cacheField name="Martín" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2" maxValue="200"/>
     </cacheField>
   </cacheFields>
 </pivotCacheDefinition>
@@ -6708,6 +6644,322 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="17">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="20"/>
+    <n v="25"/>
+    <n v="60"/>
+    <n v="8"/>
+    <n v="113"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="17"/>
+    <n v="24"/>
+    <n v="63"/>
+    <n v="10"/>
+    <n v="114"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="6"/>
+    <n v="17"/>
+    <n v="42"/>
+    <n v="5"/>
+    <n v="70"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="16"/>
+    <n v="25"/>
+    <n v="62"/>
+    <n v="8"/>
+    <n v="111"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="20"/>
+    <n v="28"/>
+    <n v="64"/>
+    <n v="9"/>
+    <n v="121"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+    <n v="10"/>
+    <n v="24"/>
+    <n v="51"/>
+    <n v="5"/>
+    <n v="90"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+    <n v="10"/>
+    <n v="25"/>
+    <n v="40"/>
+    <n v="5"/>
+    <n v="80"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="7"/>
+    <n v="12"/>
+    <n v="24"/>
+    <n v="40"/>
+    <n v="10"/>
+    <n v="86"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="8"/>
+    <n v="5"/>
+    <n v="16"/>
+    <n v="32"/>
+    <n v="8"/>
+    <n v="61"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="9"/>
+    <n v="4"/>
+    <n v="12"/>
+    <n v="30"/>
+    <n v="10"/>
+    <n v="56"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="10"/>
+    <n v="20"/>
+    <n v="46"/>
+    <n v="12"/>
+    <n v="88"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="11"/>
+    <n v="20"/>
+    <n v="18"/>
+    <n v="41"/>
+    <n v="15"/>
+    <n v="94"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="12"/>
+    <n v="20"/>
+    <n v="24"/>
+    <n v="64"/>
+    <n v="15"/>
+    <n v="123"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="13"/>
+    <n v="2"/>
+    <n v="10"/>
+    <n v="23"/>
+    <n v="20"/>
+    <n v="55"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="14"/>
+    <n v="8"/>
+    <n v="14"/>
+    <n v="30"/>
+    <n v="30"/>
+    <n v="82"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="15"/>
+    <n v="15"/>
+    <n v="22"/>
+    <n v="34"/>
+    <n v="30"/>
+    <n v="101"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="16"/>
+    <n v="2"/>
+    <n v="9"/>
+    <n v="27"/>
+    <n v="20"/>
+    <n v="58"/>
+    <x v="1"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="17">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="20"/>
+    <n v="25"/>
+    <n v="60"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="17"/>
+    <n v="24"/>
+    <n v="63"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="6"/>
+    <n v="17"/>
+    <n v="42"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="16"/>
+    <n v="25"/>
+    <n v="62"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="20"/>
+    <n v="28"/>
+    <n v="64"/>
+    <n v="9"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+    <n v="10"/>
+    <n v="24"/>
+    <n v="51"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+    <n v="10"/>
+    <n v="25"/>
+    <n v="40"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="7"/>
+    <n v="12"/>
+    <n v="24"/>
+    <n v="40"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="8"/>
+    <n v="5"/>
+    <n v="16"/>
+    <n v="32"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="9"/>
+    <n v="4"/>
+    <n v="12"/>
+    <n v="30"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="10"/>
+    <n v="20"/>
+    <n v="46"/>
+    <n v="12"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="11"/>
+    <n v="20"/>
+    <n v="18"/>
+    <n v="41"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="12"/>
+    <n v="20"/>
+    <n v="24"/>
+    <n v="64"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="13"/>
+    <n v="2"/>
+    <n v="10"/>
+    <n v="23"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="14"/>
+    <n v="8"/>
+    <n v="14"/>
+    <n v="30"/>
+    <n v="30"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="15"/>
+    <n v="15"/>
+    <n v="22"/>
+    <n v="34"/>
+    <n v="30"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="16"/>
+    <n v="2"/>
+    <n v="9"/>
+    <n v="27"/>
+    <n v="20"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords5.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="37">
   <r>
     <x v="0"/>
@@ -6759,24 +7011,24 @@
     <x v="1"/>
     <s v="Fase 2: Investigación"/>
     <s v="Prueba de concepto (Interfaz móvil)"/>
-    <n v="45"/>
-    <n v="25"/>
-    <n v="20"/>
+    <n v="56"/>
+    <n v="30"/>
+    <n v="26"/>
   </r>
   <r>
     <x v="0"/>
     <x v="1"/>
     <s v="Fase 2: Investigación"/>
     <s v="Prueba de concepto (Interfaz web)"/>
-    <n v="18"/>
-    <n v="16"/>
-    <n v="2"/>
+    <n v="32"/>
+    <n v="22"/>
+    <n v="10"/>
   </r>
   <r>
     <x v="0"/>
     <x v="1"/>
     <s v="Fase 2: Investigación"/>
-    <s v="Investigación de framework MVC (REST)"/>
+    <s v="Investigación de REST"/>
     <n v="36"/>
     <n v="20"/>
     <n v="16"/>
@@ -7029,9 +7281,9 @@
     <x v="0"/>
     <s v="Documentación"/>
     <s v="Carpeta"/>
-    <n v="300"/>
-    <n v="150"/>
-    <n v="150"/>
+    <n v="400"/>
+    <n v="200"/>
+    <n v="200"/>
   </r>
   <r>
     <x v="2"/>
@@ -7045,324 +7297,8 @@
 </pivotCacheRecords>
 </file>
 
-<file path=xl/pivotCache/pivotCacheRecords4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="17">
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="20"/>
-    <n v="25"/>
-    <n v="60"/>
-    <n v="8"/>
-    <n v="113"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="17"/>
-    <n v="24"/>
-    <n v="63"/>
-    <n v="10"/>
-    <n v="114"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-    <n v="6"/>
-    <n v="17"/>
-    <n v="42"/>
-    <n v="5"/>
-    <n v="70"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="3"/>
-    <n v="16"/>
-    <n v="25"/>
-    <n v="62"/>
-    <n v="8"/>
-    <n v="111"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-    <n v="20"/>
-    <n v="28"/>
-    <n v="64"/>
-    <n v="9"/>
-    <n v="121"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-    <n v="10"/>
-    <n v="24"/>
-    <n v="51"/>
-    <n v="5"/>
-    <n v="90"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-    <n v="10"/>
-    <n v="25"/>
-    <n v="40"/>
-    <n v="5"/>
-    <n v="80"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="7"/>
-    <n v="12"/>
-    <n v="24"/>
-    <n v="40"/>
-    <n v="10"/>
-    <n v="86"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="8"/>
-    <n v="5"/>
-    <n v="16"/>
-    <n v="32"/>
-    <n v="8"/>
-    <n v="61"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="9"/>
-    <n v="4"/>
-    <n v="12"/>
-    <n v="30"/>
-    <n v="10"/>
-    <n v="56"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="10"/>
-    <n v="10"/>
-    <n v="20"/>
-    <n v="46"/>
-    <n v="12"/>
-    <n v="88"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="11"/>
-    <n v="20"/>
-    <n v="18"/>
-    <n v="41"/>
-    <n v="15"/>
-    <n v="94"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="12"/>
-    <n v="20"/>
-    <n v="24"/>
-    <n v="64"/>
-    <n v="15"/>
-    <n v="123"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="13"/>
-    <n v="2"/>
-    <n v="10"/>
-    <n v="23"/>
-    <n v="20"/>
-    <n v="55"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="14"/>
-    <n v="8"/>
-    <n v="14"/>
-    <n v="30"/>
-    <n v="30"/>
-    <n v="82"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="15"/>
-    <n v="15"/>
-    <n v="22"/>
-    <n v="34"/>
-    <n v="30"/>
-    <n v="101"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="16"/>
-    <n v="2"/>
-    <n v="9"/>
-    <n v="27"/>
-    <n v="20"/>
-    <n v="58"/>
-    <x v="1"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="17">
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="20"/>
-    <n v="25"/>
-    <n v="60"/>
-    <n v="8"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="17"/>
-    <n v="24"/>
-    <n v="63"/>
-    <n v="10"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-    <n v="6"/>
-    <n v="17"/>
-    <n v="42"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="3"/>
-    <n v="16"/>
-    <n v="25"/>
-    <n v="62"/>
-    <n v="8"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-    <n v="20"/>
-    <n v="28"/>
-    <n v="64"/>
-    <n v="9"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-    <n v="10"/>
-    <n v="24"/>
-    <n v="51"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-    <n v="10"/>
-    <n v="25"/>
-    <n v="40"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="7"/>
-    <n v="12"/>
-    <n v="24"/>
-    <n v="40"/>
-    <n v="10"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="8"/>
-    <n v="5"/>
-    <n v="16"/>
-    <n v="32"/>
-    <n v="8"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="9"/>
-    <n v="4"/>
-    <n v="12"/>
-    <n v="30"/>
-    <n v="10"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="10"/>
-    <n v="10"/>
-    <n v="20"/>
-    <n v="46"/>
-    <n v="12"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="11"/>
-    <n v="20"/>
-    <n v="18"/>
-    <n v="41"/>
-    <n v="15"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="12"/>
-    <n v="20"/>
-    <n v="24"/>
-    <n v="64"/>
-    <n v="15"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="13"/>
-    <n v="2"/>
-    <n v="10"/>
-    <n v="23"/>
-    <n v="20"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="14"/>
-    <n v="8"/>
-    <n v="14"/>
-    <n v="30"/>
-    <n v="30"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="15"/>
-    <n v="15"/>
-    <n v="22"/>
-    <n v="34"/>
-    <n v="30"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="16"/>
-    <n v="2"/>
-    <n v="9"/>
-    <n v="27"/>
-    <n v="20"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica4" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica4" cacheId="57" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="C64:D76" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" showAll="0">
@@ -7447,7 +7383,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="57" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
   <location ref="C43:D49" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
@@ -7525,367 +7461,6 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica7" cacheId="1" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="B95:F99" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="6">
-    <pivotField axis="axisCol" showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="-2"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="0"/>
-  </colFields>
-  <colItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="3">
-    <dataField name="Suma de Investigación" fld="2" baseField="0" baseItem="0"/>
-    <dataField name="Suma de Análisis y Diseño" fld="3" baseField="0" baseItem="0"/>
-    <dataField name="Suma de Pruebas y ajustes" fld="5" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="13">
-  <location ref="B53:F72" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="6">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="18">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
-    <pivotField name="Construcción2" dataField="1" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="18">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-  </colItems>
-  <dataFields count="4">
-    <dataField name="Investigación " fld="2" baseField="0" baseItem="0"/>
-    <dataField name="Análisis y Diseño " fld="3" baseField="0" baseItem="0"/>
-    <dataField name="Construcción " fld="4" baseField="0" baseItem="0"/>
-    <dataField name="Pruebas y Ajustes " fld="5" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="4">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="6" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="B26:G31" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="7">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item m="1" x="3"/>
-        <item m="1" x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="28">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="13"/>
-        <item x="3"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="11"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="16"/>
-        <item x="6"/>
-        <item x="12"/>
-        <item m="1" x="17"/>
-        <item f="1" x="18"/>
-        <item f="1" x="19"/>
-        <item f="1" x="20"/>
-        <item f="1" x="21"/>
-        <item f="1" x="22"/>
-        <item f="1" x="23"/>
-        <item f="1" x="24"/>
-        <item f="1" x="25"/>
-        <item f="1" x="26"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </colItems>
-  <dataFields count="5">
-    <dataField name="Investigación " fld="2" baseField="0" baseItem="0"/>
-    <dataField name="Análisis y Diseño " fld="3" baseField="0" baseItem="0"/>
-    <dataField name="Construcción " fld="4" baseField="0" baseItem="0"/>
-    <dataField name="Pruebas y Ajustes " fld="5" baseField="0" baseItem="0"/>
-    <dataField name="TOTAL" fld="6" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="5">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="6" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica10" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="B193:F215" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
@@ -8058,7 +7633,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica9" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="B146:F168" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
@@ -8231,7 +7806,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica8" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="B119:C140" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
@@ -8361,6 +7936,367 @@
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica7" cacheId="1" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="B95:F99" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField axis="axisCol" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="0"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="3">
+    <dataField name="Suma de Investigación" fld="2" baseField="0" baseItem="0"/>
+    <dataField name="Suma de Análisis y Diseño" fld="3" baseField="0" baseItem="0"/>
+    <dataField name="Suma de Pruebas y ajustes" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="13">
+  <location ref="B53:F72" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="18">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
+    <pivotField name="Construcción2" dataField="1" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="18">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+  </colItems>
+  <dataFields count="4">
+    <dataField name="Investigación " fld="2" baseField="0" baseItem="0"/>
+    <dataField name="Análisis y Diseño " fld="3" baseField="0" baseItem="0"/>
+    <dataField name="Construcción " fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Pruebas y Ajustes " fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="4">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="B26:G31" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item m="1" x="3"/>
+        <item m="1" x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="28">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="13"/>
+        <item x="3"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="11"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="16"/>
+        <item x="6"/>
+        <item x="12"/>
+        <item m="1" x="17"/>
+        <item f="1" x="18"/>
+        <item f="1" x="19"/>
+        <item f="1" x="20"/>
+        <item f="1" x="21"/>
+        <item f="1" x="22"/>
+        <item f="1" x="23"/>
+        <item f="1" x="24"/>
+        <item f="1" x="25"/>
+        <item f="1" x="26"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </colItems>
+  <dataFields count="5">
+    <dataField name="Investigación " fld="2" baseField="0" baseItem="0"/>
+    <dataField name="Análisis y Diseño " fld="3" baseField="0" baseItem="0"/>
+    <dataField name="Construcción " fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Pruebas y Ajustes " fld="5" baseField="0" baseItem="0"/>
+    <dataField name="TOTAL" fld="6" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="5">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
           </reference>
         </references>
       </pivotArea>
@@ -8720,8 +8656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AW187"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:I39"/>
+    <sheetView topLeftCell="E73" workbookViewId="0">
+      <selection activeCell="F84" sqref="F84:F88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15"/>
@@ -8774,7 +8710,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E3" s="25" t="s">
         <v>8</v>
@@ -8799,7 +8735,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>8</v>
@@ -8824,7 +8760,7 @@
         <v>7</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>8</v>
@@ -8849,7 +8785,7 @@
         <v>7</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>12</v>
@@ -8874,7 +8810,7 @@
         <v>7</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>12</v>
@@ -8899,7 +8835,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>12</v>
@@ -8909,13 +8845,13 @@
       </c>
       <c r="G8" s="5">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H8" s="5">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I8" s="6">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="30">
@@ -8924,7 +8860,7 @@
         <v>7</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>12</v>
@@ -8934,28 +8870,28 @@
       </c>
       <c r="G9" s="5">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="H9" s="5">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I9" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1"/>
       <c r="C10" s="27" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>17</v>
+        <v>118</v>
       </c>
       <c r="G10" s="5">
         <f t="shared" si="0"/>
@@ -8974,13 +8910,13 @@
         <v>7</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G11" s="5">
         <f t="shared" si="0"/>
@@ -8999,13 +8935,13 @@
         <v>7</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G12" s="5">
         <f t="shared" si="0"/>
@@ -9024,13 +8960,13 @@
         <v>7</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G13" s="5">
         <f t="shared" si="0"/>
@@ -9049,13 +8985,13 @@
         <v>7</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>22</v>
       </c>
       <c r="G14" s="5">
         <f t="shared" si="0"/>
@@ -9074,13 +9010,13 @@
         <v>7</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G15" s="5">
         <f t="shared" si="0"/>
@@ -9099,13 +9035,13 @@
         <v>7</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G16" s="5">
         <f t="shared" si="0"/>
@@ -9124,13 +9060,13 @@
         <v>7</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G17" s="5">
         <f t="shared" si="0"/>
@@ -9149,13 +9085,13 @@
         <v>7</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G18" s="5">
         <f t="shared" si="0"/>
@@ -9174,13 +9110,13 @@
         <v>7</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G19" s="5">
         <f t="shared" si="0"/>
@@ -9196,16 +9132,16 @@
     <row r="20" spans="1:9" ht="30">
       <c r="A20" s="1"/>
       <c r="C20" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>29</v>
-      </c>
       <c r="F20" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G20" s="5">
         <f t="shared" si="0"/>
@@ -9221,16 +9157,16 @@
     <row r="21" spans="1:9" ht="30">
       <c r="A21" s="1"/>
       <c r="C21" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E21" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="E21" s="5" t="s">
+      <c r="F21" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>30</v>
       </c>
       <c r="G21" s="5">
         <f t="shared" si="0"/>
@@ -9246,16 +9182,16 @@
     <row r="22" spans="1:9" ht="30">
       <c r="A22" s="1"/>
       <c r="C22" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E22" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>29</v>
-      </c>
       <c r="F22" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G22" s="5">
         <f t="shared" si="0"/>
@@ -9271,16 +9207,16 @@
     <row r="23" spans="1:9" ht="30">
       <c r="A23" s="1"/>
       <c r="C23" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E23" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>29</v>
-      </c>
       <c r="F23" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G23" s="5">
         <f t="shared" si="0"/>
@@ -9296,16 +9232,16 @@
     <row r="24" spans="1:9" ht="30">
       <c r="A24" s="1"/>
       <c r="C24" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E24" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>29</v>
-      </c>
       <c r="F24" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G24" s="5">
         <f t="shared" si="0"/>
@@ -9321,16 +9257,16 @@
     <row r="25" spans="1:9" ht="30">
       <c r="A25" s="1"/>
       <c r="C25" s="27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G25" s="5">
         <f t="shared" si="0"/>
@@ -9346,16 +9282,16 @@
     <row r="26" spans="1:9" ht="30">
       <c r="A26" s="1"/>
       <c r="C26" s="27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G26" s="5">
         <f t="shared" si="0"/>
@@ -9371,16 +9307,16 @@
     <row r="27" spans="1:9" ht="30">
       <c r="A27" s="1"/>
       <c r="C27" s="27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G27" s="5">
         <f t="shared" si="0"/>
@@ -9396,16 +9332,16 @@
     <row r="28" spans="1:9" ht="30">
       <c r="A28" s="1"/>
       <c r="C28" s="27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G28" s="5">
         <f t="shared" si="0"/>
@@ -9421,16 +9357,16 @@
     <row r="29" spans="1:9" ht="30">
       <c r="A29" s="1"/>
       <c r="C29" s="27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G29" s="5">
         <f t="shared" si="0"/>
@@ -9446,16 +9382,16 @@
     <row r="30" spans="1:9" ht="30">
       <c r="A30" s="1"/>
       <c r="C30" s="27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G30" s="5">
         <f t="shared" si="0"/>
@@ -9471,16 +9407,16 @@
     <row r="31" spans="1:9" ht="30">
       <c r="A31" s="1"/>
       <c r="C31" s="27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G31" s="5">
         <f t="shared" si="0"/>
@@ -9496,16 +9432,16 @@
     <row r="32" spans="1:9" ht="30">
       <c r="A32" s="1"/>
       <c r="C32" s="27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G32" s="5">
         <f>H32+I32</f>
@@ -9521,16 +9457,16 @@
     <row r="33" spans="1:9" ht="30">
       <c r="A33" s="1"/>
       <c r="C33" s="27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G33" s="5">
         <f>H33+I33</f>
@@ -9546,16 +9482,16 @@
     <row r="34" spans="1:9" ht="30">
       <c r="A34" s="1"/>
       <c r="C34" s="27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G34" s="5">
         <f>H34+I34</f>
@@ -9571,16 +9507,16 @@
     <row r="35" spans="1:9" ht="30">
       <c r="A35" s="1"/>
       <c r="C35" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G35" s="5">
         <f t="shared" si="0"/>
@@ -9596,16 +9532,16 @@
     <row r="36" spans="1:9">
       <c r="A36" s="1"/>
       <c r="C36" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="D36" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="E36" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F36" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>39</v>
       </c>
       <c r="G36" s="5">
         <f t="shared" si="0"/>
@@ -9621,16 +9557,16 @@
     <row r="37" spans="1:9">
       <c r="A37" s="1"/>
       <c r="C37" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D37" s="5" t="s">
-        <v>38</v>
-      </c>
       <c r="E37" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G37" s="5">
         <f t="shared" si="0"/>
@@ -9646,41 +9582,41 @@
     <row r="38" spans="1:9">
       <c r="A38" s="1"/>
       <c r="C38" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="D38" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D38" s="5" t="s">
-        <v>38</v>
-      </c>
       <c r="E38" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G38" s="5">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H38" s="5">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="I38" s="6">
-        <v>150</v>
+        <v>200</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="15.75" thickBot="1">
       <c r="A39" s="1"/>
       <c r="C39" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="D39" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D39" s="29" t="s">
-        <v>38</v>
-      </c>
       <c r="E39" s="29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F39" s="31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G39" s="29">
         <f t="shared" si="0"/>
@@ -9717,27 +9653,27 @@
     <row r="43" spans="1:9">
       <c r="A43" s="1"/>
       <c r="C43" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D43" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E43"/>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="1"/>
       <c r="C44" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D44" s="11">
-        <v>690</v>
+        <v>715</v>
       </c>
       <c r="E44"/>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="1"/>
       <c r="C45" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D45" s="11">
         <v>337</v>
@@ -9747,7 +9683,7 @@
     <row r="46" spans="1:9">
       <c r="A46" s="1"/>
       <c r="C46" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D46" s="11">
         <v>749</v>
@@ -9757,7 +9693,7 @@
     <row r="47" spans="1:9">
       <c r="A47" s="1"/>
       <c r="C47" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D47" s="11">
         <v>400</v>
@@ -9767,20 +9703,20 @@
     <row r="48" spans="1:9">
       <c r="A48" s="1"/>
       <c r="C48" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D48" s="11">
-        <v>599</v>
+        <v>699</v>
       </c>
       <c r="E48"/>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="1"/>
       <c r="C49" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D49" s="11">
-        <v>2775</v>
+        <v>2900</v>
       </c>
       <c r="E49"/>
     </row>
@@ -9853,7 +9789,7 @@
     <row r="61" spans="1:5">
       <c r="A61" s="1"/>
       <c r="C61" s="22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D61"/>
       <c r="E61"/>
@@ -9867,13 +9803,13 @@
     <row r="64" spans="1:5">
       <c r="A64" s="1"/>
       <c r="C64" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D64" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E64" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="65" spans="1:16">
@@ -9882,26 +9818,26 @@
         <v>7</v>
       </c>
       <c r="D65" s="11">
-        <v>729</v>
+        <v>754</v>
       </c>
       <c r="E65"/>
       <c r="G65"/>
       <c r="H65"/>
       <c r="I65" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="66" spans="1:16">
       <c r="A66" s="1"/>
       <c r="C66" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D66" s="11">
         <v>236</v>
       </c>
       <c r="E66" s="21">
         <f>GETPIVOTDATA("Horas",$C$64,"Etapa","Etapa 1","Tipo","Documentación")/GETPIVOTDATA("Horas",$C$64,"Etapa","Etapa 1")</f>
-        <v>0.32373113854595337</v>
+        <v>0.3129973474801061</v>
       </c>
       <c r="H66" s="11"/>
       <c r="I66"/>
@@ -9909,45 +9845,45 @@
     <row r="67" spans="1:16">
       <c r="A67" s="1"/>
       <c r="C67" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D67" s="11">
-        <v>493</v>
+        <v>518</v>
       </c>
       <c r="E67" s="21">
         <f>GETPIVOTDATA("Horas",$C$64,"Etapa","Etapa 1","Tipo","Investigación")/GETPIVOTDATA("Horas",$C$64,"Etapa","Etapa 1")</f>
-        <v>0.67626886145404663</v>
+        <v>0.6870026525198939</v>
       </c>
       <c r="G67" s="10" t="s">
         <v>7</v>
       </c>
       <c r="H67" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I67" s="21">
         <f>GETPIVOTDATA("Horas",$C$64,"Etapa","Etapa 1","Tipo","Documentación")/GETPIVOTDATA("Horas",$C$64,"Etapa","Etapa 1")</f>
-        <v>0.32373113854595337</v>
+        <v>0.3129973474801061</v>
       </c>
       <c r="L67" s="1" t="s">
         <v>1</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N67" s="10" t="s">
         <v>7</v>
       </c>
       <c r="O67" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P67" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="68" spans="1:16">
       <c r="A68" s="1"/>
       <c r="C68" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D68" s="11">
         <v>1503</v>
@@ -9957,14 +9893,14 @@
         <v>7</v>
       </c>
       <c r="H68" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I68" s="21">
         <f>GETPIVOTDATA("Horas",$C$64,"Etapa","Etapa 1","Tipo","Investigación")/GETPIVOTDATA("Horas",$C$64,"Etapa","Etapa 1")</f>
-        <v>0.67626886145404663</v>
+        <v>0.6870026525198939</v>
       </c>
       <c r="L68" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M68" s="2">
         <v>0</v>
@@ -9976,13 +9912,13 @@
         <v>0</v>
       </c>
       <c r="P68" s="2">
-        <v>363</v>
+        <v>463</v>
       </c>
     </row>
     <row r="69" spans="1:16">
       <c r="A69" s="1"/>
       <c r="C69" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D69" s="11">
         <v>197</v>
@@ -9992,23 +9928,23 @@
         <v>0.49833666001330673</v>
       </c>
       <c r="G69" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H69" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I69" s="21">
         <f>E72</f>
         <v>0.22421823020625417</v>
       </c>
       <c r="L69" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M69" s="2">
         <v>0</v>
       </c>
       <c r="N69" s="2">
-        <v>493</v>
+        <v>518</v>
       </c>
       <c r="O69" s="2">
         <v>197</v>
@@ -10020,7 +9956,7 @@
     <row r="70" spans="1:16">
       <c r="A70" s="1"/>
       <c r="C70" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D70" s="11">
         <v>337</v>
@@ -10030,17 +9966,17 @@
         <v>0.13107119095143047</v>
       </c>
       <c r="G70" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H70" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I70" s="21">
         <f>GETPIVOTDATA("Horas",$C$64,"Etapa","Etapa 2","Tipo","Construcción")/GETPIVOTDATA("Horas",$C$64,"Etapa","Etapa 2")</f>
         <v>0.49833666001330673</v>
       </c>
       <c r="L70" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M70" s="2">
         <v>0</v>
@@ -10058,7 +9994,7 @@
     <row r="71" spans="1:16">
       <c r="A71" s="1"/>
       <c r="C71" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D71" s="11">
         <v>749</v>
@@ -10068,17 +10004,17 @@
         <v>0.14637391882900866</v>
       </c>
       <c r="G71" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H71" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I71" s="21">
         <f>GETPIVOTDATA("Horas",$C$64,"Etapa","Etapa 2","Tipo","Investigación")/GETPIVOTDATA("Horas",$C$64,"Etapa","Etapa 2")</f>
         <v>0.13107119095143047</v>
       </c>
       <c r="L71" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M71" s="2">
         <v>0</v>
@@ -10096,7 +10032,7 @@
     <row r="72" spans="1:16">
       <c r="A72" s="1"/>
       <c r="C72" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D72" s="11">
         <v>220</v>
@@ -10106,17 +10042,17 @@
         <v>0.22421823020625417</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H72" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I72" s="21">
         <f>GETPIVOTDATA("Horas",$C$64,"Etapa","Etapa 2","Tipo","Pruebas y Ajustes")/GETPIVOTDATA("Horas",$C$64,"Etapa","Etapa 2")</f>
         <v>0.14637391882900866</v>
       </c>
       <c r="L72" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M72" s="2">
         <v>0</v>
@@ -10134,21 +10070,21 @@
     <row r="73" spans="1:16">
       <c r="A73" s="1"/>
       <c r="C73" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D73" s="11">
-        <v>543</v>
+        <v>643</v>
       </c>
       <c r="E73" s="21"/>
       <c r="G73" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H73" s="20" t="s">
         <v>37</v>
-      </c>
-      <c r="H73" s="20" t="s">
-        <v>38</v>
       </c>
       <c r="I73" s="21">
         <f>GETPIVOTDATA("Horas",$C$64,"Etapa","Etapa 3","Tipo","Documentación")/GETPIVOTDATA("Horas",$C$64,"Etapa","Etapa 3")</f>
-        <v>0.66850828729281764</v>
+        <v>0.72006220839813373</v>
       </c>
       <c r="L73" s="20"/>
       <c r="M73" s="2"/>
@@ -10159,46 +10095,46 @@
     <row r="74" spans="1:16">
       <c r="A74" s="1"/>
       <c r="C74" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D74" s="11">
-        <v>363</v>
+        <v>463</v>
       </c>
       <c r="E74" s="21">
         <f>GETPIVOTDATA("Horas",$C$64,"Etapa","Etapa 3","Tipo","Documentación")/GETPIVOTDATA("Horas",$C$64,"Etapa","Etapa 3")</f>
-        <v>0.66850828729281764</v>
+        <v>0.72006220839813373</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H74" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I74" s="21">
         <f>GETPIVOTDATA("Horas",$C$64,"Etapa","Etapa 3","Tipo","Pruebas y Ajustes")/GETPIVOTDATA("Horas",$C$64,"Etapa","Etapa 3")</f>
-        <v>0.33149171270718231</v>
+        <v>0.27993779160186627</v>
       </c>
     </row>
     <row r="75" spans="1:16">
       <c r="A75" s="1"/>
       <c r="C75" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D75" s="11">
         <v>180</v>
       </c>
       <c r="E75" s="21">
         <f>GETPIVOTDATA("Horas",$C$64,"Etapa","Etapa 3","Tipo","Pruebas y Ajustes")/GETPIVOTDATA("Horas",$C$64,"Etapa","Etapa 3")</f>
-        <v>0.33149171270718231</v>
+        <v>0.27993779160186627</v>
       </c>
     </row>
     <row r="76" spans="1:16">
       <c r="A76" s="1"/>
       <c r="C76" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D76" s="11">
-        <v>2775</v>
+        <v>2900</v>
       </c>
       <c r="E76" s="21"/>
     </row>
@@ -10236,49 +10172,49 @@
         <v>1</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D83" s="10" t="s">
         <v>7</v>
       </c>
       <c r="E83" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F83" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="1"/>
       <c r="B84" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C84" s="2">
         <v>0</v>
       </c>
       <c r="D84" s="21">
         <f>I67</f>
-        <v>0.32373113854595337</v>
+        <v>0.3129973474801061</v>
       </c>
       <c r="E84" s="2">
         <v>0</v>
       </c>
       <c r="F84" s="19">
         <f>I73</f>
-        <v>0.66850828729281764</v>
+        <v>0.72006220839813373</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="1"/>
       <c r="B85" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C85" s="2">
         <v>0</v>
       </c>
       <c r="D85" s="21">
         <f>I68</f>
-        <v>0.67626886145404663</v>
+        <v>0.6870026525198939</v>
       </c>
       <c r="E85" s="19">
         <f>I71</f>
@@ -10291,7 +10227,7 @@
     <row r="86" spans="1:6">
       <c r="A86" s="1"/>
       <c r="B86" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C86" s="2">
         <v>0</v>
@@ -10310,7 +10246,7 @@
     <row r="87" spans="1:6">
       <c r="A87" s="1"/>
       <c r="B87" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C87" s="2">
         <v>0</v>
@@ -10329,7 +10265,7 @@
     <row r="88" spans="1:6">
       <c r="A88" s="1"/>
       <c r="B88" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C88" s="2">
         <v>0</v>
@@ -10343,7 +10279,7 @@
       </c>
       <c r="F88" s="19">
         <f>I74</f>
-        <v>0.33149171270718231</v>
+        <v>0.27993779160186627</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -10376,28 +10312,28 @@
         <v>1</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E97" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I97" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G97" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="H97" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="I97" s="2" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="98" spans="1:15">
       <c r="A98" s="1"/>
       <c r="C98" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D98" s="10">
         <v>0</v>
@@ -10415,19 +10351,19 @@
         <v>0</v>
       </c>
       <c r="I98" s="2">
-        <v>363</v>
+        <v>463</v>
       </c>
     </row>
     <row r="99" spans="1:15">
       <c r="A99" s="1"/>
       <c r="C99" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D99" s="10">
         <v>0</v>
       </c>
       <c r="E99" s="2">
-        <v>493</v>
+        <v>518</v>
       </c>
       <c r="F99" s="2">
         <v>99</v>
@@ -10445,7 +10381,7 @@
     <row r="100" spans="1:15">
       <c r="A100" s="1"/>
       <c r="C100" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D100" s="10">
         <v>0</v>
@@ -10469,7 +10405,7 @@
     <row r="101" spans="1:15">
       <c r="A101" s="1"/>
       <c r="C101" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D101" s="10">
         <v>0</v>
@@ -10493,7 +10429,7 @@
     <row r="102" spans="1:15">
       <c r="A102" s="1"/>
       <c r="C102" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D102" s="10">
         <v>0</v>
@@ -10633,34 +10569,34 @@
         <v>1</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E129" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G129" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="F129" s="2" t="s">
+      <c r="H129" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="G129" s="2" t="s">
+      <c r="I129" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="H129" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="I129" s="2" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="130" spans="1:9">
       <c r="A130" s="1"/>
       <c r="C130" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D130" s="2">
         <v>0</v>
       </c>
       <c r="E130" s="2">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="F130" s="2">
         <v>0</v>
@@ -10672,19 +10608,19 @@
         <v>0</v>
       </c>
       <c r="I130" s="2">
-        <v>0.67</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="131" spans="1:9">
       <c r="A131" s="1"/>
       <c r="C131" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D131" s="2">
         <v>0</v>
       </c>
       <c r="E131" s="2">
-        <v>0.68</v>
+        <v>0.69</v>
       </c>
       <c r="F131" s="2">
         <v>0.14000000000000001</v>
@@ -10702,7 +10638,7 @@
     <row r="132" spans="1:9">
       <c r="A132" s="1"/>
       <c r="C132" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D132" s="2">
         <v>0</v>
@@ -10726,7 +10662,7 @@
     <row r="133" spans="1:9">
       <c r="A133" s="1"/>
       <c r="C133" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D133" s="2">
         <v>0</v>
@@ -10750,7 +10686,7 @@
     <row r="134" spans="1:9">
       <c r="A134" s="1"/>
       <c r="C134" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D134" s="2">
         <v>0</v>
@@ -10768,7 +10704,7 @@
         <v>0.33</v>
       </c>
       <c r="I134" s="2">
-        <v>0.33</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -10941,8 +10877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:R215"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:G20"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15"/>
@@ -10970,36 +10906,36 @@
   <sheetData>
     <row r="3" spans="2:9" ht="31.5">
       <c r="B3" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C3" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>46</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>47</v>
       </c>
       <c r="D4" s="23">
         <v>20</v>
@@ -11017,17 +10953,17 @@
         <f t="shared" ref="H4:H20" si="0">SUM(D4:G4)</f>
         <v>113</v>
       </c>
-      <c r="I4" s="44">
+      <c r="I4" s="33">
         <f>SUM(H4:H10)</f>
         <v>699</v>
       </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D5" s="23">
         <v>17</v>
@@ -11045,14 +10981,14 @@
         <f t="shared" si="0"/>
         <v>114</v>
       </c>
-      <c r="I5" s="44"/>
+      <c r="I5" s="33"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D6" s="23">
         <v>6</v>
@@ -11070,14 +11006,14 @@
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="I6" s="44"/>
+      <c r="I6" s="33"/>
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D7" s="23">
         <v>16</v>
@@ -11095,14 +11031,14 @@
         <f t="shared" si="0"/>
         <v>111</v>
       </c>
-      <c r="I7" s="44"/>
+      <c r="I7" s="33"/>
     </row>
     <row r="8" spans="2:9">
       <c r="B8" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D8" s="23">
         <v>20</v>
@@ -11120,14 +11056,14 @@
         <f t="shared" si="0"/>
         <v>121</v>
       </c>
-      <c r="I8" s="44"/>
+      <c r="I8" s="33"/>
     </row>
     <row r="9" spans="2:9">
       <c r="B9" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D9" s="23">
         <v>10</v>
@@ -11145,14 +11081,14 @@
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="I9" s="44"/>
+      <c r="I9" s="33"/>
     </row>
     <row r="10" spans="2:9">
       <c r="B10" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D10" s="23">
         <v>10</v>
@@ -11170,14 +11106,14 @@
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="I10" s="44"/>
+      <c r="I10" s="33"/>
     </row>
     <row r="11" spans="2:9">
       <c r="B11" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="14" t="s">
         <v>54</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>55</v>
       </c>
       <c r="D11" s="23">
         <v>12</v>
@@ -11195,17 +11131,17 @@
         <f t="shared" si="0"/>
         <v>86</v>
       </c>
-      <c r="I11" s="44">
+      <c r="I11" s="33">
         <f>SUM(H11:H16)</f>
         <v>508</v>
       </c>
     </row>
     <row r="12" spans="2:9">
       <c r="B12" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D12" s="23">
         <v>5</v>
@@ -11223,14 +11159,14 @@
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="I12" s="44"/>
+      <c r="I12" s="33"/>
     </row>
     <row r="13" spans="2:9">
       <c r="B13" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D13" s="23">
         <v>4</v>
@@ -11248,14 +11184,14 @@
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="I13" s="44"/>
+      <c r="I13" s="33"/>
     </row>
     <row r="14" spans="2:9">
       <c r="B14" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D14" s="23">
         <v>10</v>
@@ -11273,14 +11209,14 @@
         <f t="shared" si="0"/>
         <v>88</v>
       </c>
-      <c r="I14" s="44"/>
+      <c r="I14" s="33"/>
     </row>
     <row r="15" spans="2:9">
       <c r="B15" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D15" s="23">
         <v>20</v>
@@ -11298,14 +11234,14 @@
         <f t="shared" si="0"/>
         <v>94</v>
       </c>
-      <c r="I15" s="44"/>
+      <c r="I15" s="33"/>
     </row>
     <row r="16" spans="2:9">
       <c r="B16" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D16" s="23">
         <v>20</v>
@@ -11323,14 +11259,14 @@
         <f t="shared" si="0"/>
         <v>123</v>
       </c>
-      <c r="I16" s="44"/>
+      <c r="I16" s="33"/>
     </row>
     <row r="17" spans="2:9">
       <c r="B17" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="14" t="s">
         <v>61</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>62</v>
       </c>
       <c r="D17" s="23">
         <v>2</v>
@@ -11348,17 +11284,17 @@
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="I17" s="44">
+      <c r="I17" s="33">
         <f>SUM(H17:H20)</f>
         <v>296</v>
       </c>
     </row>
     <row r="18" spans="2:9">
       <c r="B18" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D18" s="23">
         <v>8</v>
@@ -11376,14 +11312,14 @@
         <f t="shared" si="0"/>
         <v>82</v>
       </c>
-      <c r="I18" s="44"/>
+      <c r="I18" s="33"/>
     </row>
     <row r="19" spans="2:9">
       <c r="B19" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D19" s="23">
         <v>15</v>
@@ -11401,14 +11337,14 @@
         <f t="shared" si="0"/>
         <v>101</v>
       </c>
-      <c r="I19" s="44"/>
+      <c r="I19" s="33"/>
     </row>
     <row r="20" spans="2:9">
       <c r="B20" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D20" s="23">
         <v>2</v>
@@ -11426,11 +11362,11 @@
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="I20" s="44"/>
+      <c r="I20" s="33"/>
     </row>
     <row r="21" spans="2:9">
       <c r="C21" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D21" s="2">
         <f>SUM(D4:D20)</f>
@@ -11475,7 +11411,7 @@
     <row r="26" spans="2:9">
       <c r="B26"/>
       <c r="C26" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D26"/>
       <c r="E26"/>
@@ -11485,28 +11421,28 @@
     </row>
     <row r="27" spans="2:9">
       <c r="B27" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C27" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" t="s">
+        <v>90</v>
+      </c>
+      <c r="E27" t="s">
+        <v>94</v>
+      </c>
+      <c r="F27" t="s">
         <v>83</v>
       </c>
-      <c r="D27" t="s">
-        <v>91</v>
-      </c>
-      <c r="E27" t="s">
-        <v>95</v>
-      </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>84</v>
-      </c>
-      <c r="G27" t="s">
-        <v>85</v>
       </c>
       <c r="H27"/>
     </row>
     <row r="28" spans="2:9">
       <c r="B28" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C28" s="11">
         <v>99</v>
@@ -11527,7 +11463,7 @@
     </row>
     <row r="29" spans="2:9">
       <c r="B29" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C29" s="11">
         <v>71</v>
@@ -11548,7 +11484,7 @@
     </row>
     <row r="30" spans="2:9">
       <c r="B30" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C30" s="11">
         <v>27</v>
@@ -11569,7 +11505,7 @@
     </row>
     <row r="31" spans="2:9">
       <c r="B31" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C31" s="11">
         <v>197</v>
@@ -11659,7 +11595,7 @@
     <row r="53" spans="2:7">
       <c r="B53"/>
       <c r="C53" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D53"/>
       <c r="E53"/>
@@ -11668,25 +11604,25 @@
     </row>
     <row r="54" spans="2:7">
       <c r="B54" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C54" t="s">
+        <v>82</v>
+      </c>
+      <c r="D54" t="s">
+        <v>90</v>
+      </c>
+      <c r="E54" t="s">
+        <v>94</v>
+      </c>
+      <c r="F54" t="s">
         <v>83</v>
-      </c>
-      <c r="D54" t="s">
-        <v>91</v>
-      </c>
-      <c r="E54" t="s">
-        <v>95</v>
-      </c>
-      <c r="F54" t="s">
-        <v>84</v>
       </c>
       <c r="G54"/>
     </row>
     <row r="55" spans="2:7">
       <c r="B55" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C55" s="11">
         <v>20</v>
@@ -11704,7 +11640,7 @@
     </row>
     <row r="56" spans="2:7">
       <c r="B56" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C56" s="11">
         <v>17</v>
@@ -11722,7 +11658,7 @@
     </row>
     <row r="57" spans="2:7">
       <c r="B57" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C57" s="11">
         <v>6</v>
@@ -11740,7 +11676,7 @@
     </row>
     <row r="58" spans="2:7">
       <c r="B58" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C58" s="11">
         <v>16</v>
@@ -11758,7 +11694,7 @@
     </row>
     <row r="59" spans="2:7">
       <c r="B59" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C59" s="11">
         <v>20</v>
@@ -11776,7 +11712,7 @@
     </row>
     <row r="60" spans="2:7">
       <c r="B60" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C60" s="11">
         <v>10</v>
@@ -11794,7 +11730,7 @@
     </row>
     <row r="61" spans="2:7">
       <c r="B61" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C61" s="11">
         <v>10</v>
@@ -11812,7 +11748,7 @@
     </row>
     <row r="62" spans="2:7">
       <c r="B62" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C62" s="11">
         <v>12</v>
@@ -11830,7 +11766,7 @@
     </row>
     <row r="63" spans="2:7">
       <c r="B63" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C63" s="11">
         <v>5</v>
@@ -11848,7 +11784,7 @@
     </row>
     <row r="64" spans="2:7">
       <c r="B64" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C64" s="11">
         <v>4</v>
@@ -11866,7 +11802,7 @@
     </row>
     <row r="65" spans="2:7">
       <c r="B65" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C65" s="11">
         <v>10</v>
@@ -11884,7 +11820,7 @@
     </row>
     <row r="66" spans="2:7">
       <c r="B66" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C66" s="11">
         <v>20</v>
@@ -11902,7 +11838,7 @@
     </row>
     <row r="67" spans="2:7">
       <c r="B67" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C67" s="11">
         <v>20</v>
@@ -11920,7 +11856,7 @@
     </row>
     <row r="68" spans="2:7">
       <c r="B68" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C68" s="11">
         <v>2</v>
@@ -11938,7 +11874,7 @@
     </row>
     <row r="69" spans="2:7">
       <c r="B69" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C69" s="11">
         <v>8</v>
@@ -11956,7 +11892,7 @@
     </row>
     <row r="70" spans="2:7">
       <c r="B70" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C70" s="11">
         <v>15</v>
@@ -11974,7 +11910,7 @@
     </row>
     <row r="71" spans="2:7">
       <c r="B71" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C71" s="11">
         <v>2</v>
@@ -11992,7 +11928,7 @@
     </row>
     <row r="72" spans="2:7">
       <c r="B72" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C72" s="11">
         <v>197</v>
@@ -12011,7 +11947,7 @@
     <row r="95" spans="2:18">
       <c r="B95"/>
       <c r="C95" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D95"/>
       <c r="E95"/>
@@ -12030,19 +11966,19 @@
     </row>
     <row r="96" spans="2:18">
       <c r="B96" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C96" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D96" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E96" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F96" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G96"/>
       <c r="H96"/>
@@ -12059,7 +11995,7 @@
     </row>
     <row r="97" spans="2:18">
       <c r="B97" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C97" s="11">
         <v>99</v>
@@ -12088,7 +12024,7 @@
     </row>
     <row r="98" spans="2:18">
       <c r="B98" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C98" s="11">
         <v>168</v>
@@ -12117,7 +12053,7 @@
     </row>
     <row r="99" spans="2:18">
       <c r="B99" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C99" s="11">
         <v>50</v>
@@ -12183,7 +12119,7 @@
     </row>
     <row r="102" spans="2:18">
       <c r="B102" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C102">
         <f>SUM(C97:C100)</f>
@@ -12236,24 +12172,24 @@
     </row>
     <row r="109" spans="2:18">
       <c r="B109" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D109" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E109" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F109" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="110" spans="2:18">
       <c r="B110" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C110" s="2">
         <v>0</v>
@@ -12273,7 +12209,7 @@
     </row>
     <row r="111" spans="2:18">
       <c r="B111" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C111" s="2">
         <v>0</v>
@@ -12293,7 +12229,7 @@
     </row>
     <row r="112" spans="2:18">
       <c r="B112" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C112" s="2">
         <v>0</v>
@@ -12313,7 +12249,7 @@
     </row>
     <row r="113" spans="2:7">
       <c r="B113" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C113" s="2">
         <v>0</v>
@@ -12359,10 +12295,10 @@
     </row>
     <row r="119" spans="2:7">
       <c r="B119" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C119" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D119"/>
       <c r="E119"/>
@@ -12371,7 +12307,7 @@
     </row>
     <row r="120" spans="2:7">
       <c r="B120" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C120" s="11">
         <v>699</v>
@@ -12383,7 +12319,7 @@
     </row>
     <row r="121" spans="2:7">
       <c r="B121" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C121" s="11">
         <v>113</v>
@@ -12395,7 +12331,7 @@
     </row>
     <row r="122" spans="2:7">
       <c r="B122" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C122" s="11">
         <v>114</v>
@@ -12407,7 +12343,7 @@
     </row>
     <row r="123" spans="2:7">
       <c r="B123" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C123" s="11">
         <v>70</v>
@@ -12419,7 +12355,7 @@
     </row>
     <row r="124" spans="2:7">
       <c r="B124" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C124" s="11">
         <v>111</v>
@@ -12431,7 +12367,7 @@
     </row>
     <row r="125" spans="2:7">
       <c r="B125" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C125" s="11">
         <v>121</v>
@@ -12443,7 +12379,7 @@
     </row>
     <row r="126" spans="2:7">
       <c r="B126" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C126" s="11">
         <v>90</v>
@@ -12455,7 +12391,7 @@
     </row>
     <row r="127" spans="2:7">
       <c r="B127" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C127" s="11">
         <v>80</v>
@@ -12467,7 +12403,7 @@
     </row>
     <row r="128" spans="2:7">
       <c r="B128" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C128" s="11">
         <v>508</v>
@@ -12479,7 +12415,7 @@
     </row>
     <row r="129" spans="2:7">
       <c r="B129" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C129" s="11">
         <v>86</v>
@@ -12491,7 +12427,7 @@
     </row>
     <row r="130" spans="2:7">
       <c r="B130" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C130" s="11">
         <v>61</v>
@@ -12503,7 +12439,7 @@
     </row>
     <row r="131" spans="2:7">
       <c r="B131" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C131" s="11">
         <v>56</v>
@@ -12515,7 +12451,7 @@
     </row>
     <row r="132" spans="2:7">
       <c r="B132" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C132" s="11">
         <v>88</v>
@@ -12527,7 +12463,7 @@
     </row>
     <row r="133" spans="2:7">
       <c r="B133" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C133" s="11">
         <v>94</v>
@@ -12539,7 +12475,7 @@
     </row>
     <row r="134" spans="2:7">
       <c r="B134" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C134" s="11">
         <v>123</v>
@@ -12551,7 +12487,7 @@
     </row>
     <row r="135" spans="2:7">
       <c r="B135" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C135" s="11">
         <v>296</v>
@@ -12563,7 +12499,7 @@
     </row>
     <row r="136" spans="2:7">
       <c r="B136" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C136" s="11">
         <v>55</v>
@@ -12575,7 +12511,7 @@
     </row>
     <row r="137" spans="2:7">
       <c r="B137" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C137" s="11">
         <v>82</v>
@@ -12587,7 +12523,7 @@
     </row>
     <row r="138" spans="2:7">
       <c r="B138" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C138" s="11">
         <v>101</v>
@@ -12599,7 +12535,7 @@
     </row>
     <row r="139" spans="2:7">
       <c r="B139" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C139" s="11">
         <v>58</v>
@@ -12611,7 +12547,7 @@
     </row>
     <row r="140" spans="2:7">
       <c r="B140" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C140" s="11">
         <v>1503</v>
@@ -12664,7 +12600,7 @@
     <row r="146" spans="2:7">
       <c r="B146"/>
       <c r="C146" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D146"/>
       <c r="E146"/>
@@ -12673,25 +12609,25 @@
     </row>
     <row r="147" spans="2:7">
       <c r="B147" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C147" t="s">
+        <v>82</v>
+      </c>
+      <c r="D147" t="s">
+        <v>90</v>
+      </c>
+      <c r="E147" t="s">
+        <v>94</v>
+      </c>
+      <c r="F147" t="s">
         <v>83</v>
-      </c>
-      <c r="D147" t="s">
-        <v>91</v>
-      </c>
-      <c r="E147" t="s">
-        <v>95</v>
-      </c>
-      <c r="F147" t="s">
-        <v>84</v>
       </c>
       <c r="G147"/>
     </row>
     <row r="148" spans="2:7">
       <c r="B148" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C148" s="11">
         <v>99</v>
@@ -12709,7 +12645,7 @@
     </row>
     <row r="149" spans="2:7">
       <c r="B149" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C149" s="11">
         <v>20</v>
@@ -12727,7 +12663,7 @@
     </row>
     <row r="150" spans="2:7">
       <c r="B150" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C150" s="11">
         <v>17</v>
@@ -12745,7 +12681,7 @@
     </row>
     <row r="151" spans="2:7">
       <c r="B151" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C151" s="11">
         <v>6</v>
@@ -12763,7 +12699,7 @@
     </row>
     <row r="152" spans="2:7">
       <c r="B152" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C152" s="11">
         <v>16</v>
@@ -12781,7 +12717,7 @@
     </row>
     <row r="153" spans="2:7">
       <c r="B153" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C153" s="11">
         <v>20</v>
@@ -12799,7 +12735,7 @@
     </row>
     <row r="154" spans="2:7">
       <c r="B154" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C154" s="11">
         <v>10</v>
@@ -12817,7 +12753,7 @@
     </row>
     <row r="155" spans="2:7">
       <c r="B155" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C155" s="11">
         <v>10</v>
@@ -12835,7 +12771,7 @@
     </row>
     <row r="156" spans="2:7">
       <c r="B156" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C156" s="11">
         <v>71</v>
@@ -12853,7 +12789,7 @@
     </row>
     <row r="157" spans="2:7">
       <c r="B157" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C157" s="11">
         <v>12</v>
@@ -12871,7 +12807,7 @@
     </row>
     <row r="158" spans="2:7">
       <c r="B158" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C158" s="11">
         <v>5</v>
@@ -12889,7 +12825,7 @@
     </row>
     <row r="159" spans="2:7">
       <c r="B159" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C159" s="11">
         <v>4</v>
@@ -12906,7 +12842,7 @@
     </row>
     <row r="160" spans="2:7">
       <c r="B160" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C160" s="11">
         <v>10</v>
@@ -12923,7 +12859,7 @@
     </row>
     <row r="161" spans="2:7">
       <c r="B161" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C161" s="11">
         <v>20</v>
@@ -12940,7 +12876,7 @@
     </row>
     <row r="162" spans="2:7">
       <c r="B162" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C162" s="11">
         <v>20</v>
@@ -12957,7 +12893,7 @@
     </row>
     <row r="163" spans="2:7">
       <c r="B163" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C163" s="11">
         <v>27</v>
@@ -12974,7 +12910,7 @@
     </row>
     <row r="164" spans="2:7">
       <c r="B164" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C164" s="11">
         <v>2</v>
@@ -12991,7 +12927,7 @@
     </row>
     <row r="165" spans="2:7">
       <c r="B165" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C165" s="11">
         <v>8</v>
@@ -13008,7 +12944,7 @@
     </row>
     <row r="166" spans="2:7">
       <c r="B166" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C166" s="11">
         <v>15</v>
@@ -13025,7 +12961,7 @@
     </row>
     <row r="167" spans="2:7">
       <c r="B167" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C167" s="11">
         <v>2</v>
@@ -13042,7 +12978,7 @@
     </row>
     <row r="168" spans="2:7">
       <c r="B168" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C168" s="11">
         <v>197</v>
@@ -13059,30 +12995,30 @@
     </row>
     <row r="173" spans="2:7" ht="31.5">
       <c r="B173" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C173" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D173" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E173" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F173" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G173" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="174" spans="2:7">
       <c r="B174" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C174" s="14" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D174" s="23">
         <v>20</v>
@@ -13099,10 +13035,10 @@
     </row>
     <row r="175" spans="2:7">
       <c r="B175" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C175" s="14" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D175" s="23">
         <v>17</v>
@@ -13119,10 +13055,10 @@
     </row>
     <row r="176" spans="2:7">
       <c r="B176" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C176" s="14" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D176" s="23">
         <v>6</v>
@@ -13139,10 +13075,10 @@
     </row>
     <row r="177" spans="2:7">
       <c r="B177" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C177" s="14" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D177" s="23">
         <v>16</v>
@@ -13159,10 +13095,10 @@
     </row>
     <row r="178" spans="2:7">
       <c r="B178" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C178" s="14" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D178" s="23">
         <v>20</v>
@@ -13179,10 +13115,10 @@
     </row>
     <row r="179" spans="2:7">
       <c r="B179" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C179" s="14" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D179" s="23">
         <v>10</v>
@@ -13199,10 +13135,10 @@
     </row>
     <row r="180" spans="2:7">
       <c r="B180" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C180" s="14" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D180" s="23">
         <v>10</v>
@@ -13219,10 +13155,10 @@
     </row>
     <row r="181" spans="2:7">
       <c r="B181" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C181" s="14" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D181" s="23">
         <v>12</v>
@@ -13239,10 +13175,10 @@
     </row>
     <row r="182" spans="2:7">
       <c r="B182" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C182" s="14" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D182" s="23">
         <v>5</v>
@@ -13259,10 +13195,10 @@
     </row>
     <row r="183" spans="2:7">
       <c r="B183" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C183" s="14" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D183" s="23">
         <v>4</v>
@@ -13279,10 +13215,10 @@
     </row>
     <row r="184" spans="2:7">
       <c r="B184" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C184" s="14" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D184" s="23">
         <v>10</v>
@@ -13299,10 +13235,10 @@
     </row>
     <row r="185" spans="2:7">
       <c r="B185" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C185" s="14" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D185" s="23">
         <v>20</v>
@@ -13319,10 +13255,10 @@
     </row>
     <row r="186" spans="2:7">
       <c r="B186" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C186" s="14" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D186" s="23">
         <v>20</v>
@@ -13339,10 +13275,10 @@
     </row>
     <row r="187" spans="2:7">
       <c r="B187" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C187" s="14" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D187" s="23">
         <v>2</v>
@@ -13359,10 +13295,10 @@
     </row>
     <row r="188" spans="2:7">
       <c r="B188" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C188" s="14" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D188" s="23">
         <v>8</v>
@@ -13379,10 +13315,10 @@
     </row>
     <row r="189" spans="2:7">
       <c r="B189" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C189" s="14" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D189" s="23">
         <v>15</v>
@@ -13399,10 +13335,10 @@
     </row>
     <row r="190" spans="2:7">
       <c r="B190" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C190" s="14" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D190" s="23">
         <v>2</v>
@@ -13420,7 +13356,7 @@
     <row r="193" spans="2:6">
       <c r="B193"/>
       <c r="C193" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D193"/>
       <c r="E193"/>
@@ -13428,24 +13364,24 @@
     </row>
     <row r="194" spans="2:6">
       <c r="B194" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C194" t="s">
+        <v>82</v>
+      </c>
+      <c r="D194" t="s">
+        <v>90</v>
+      </c>
+      <c r="E194" t="s">
+        <v>94</v>
+      </c>
+      <c r="F194" t="s">
         <v>83</v>
-      </c>
-      <c r="D194" t="s">
-        <v>91</v>
-      </c>
-      <c r="E194" t="s">
-        <v>95</v>
-      </c>
-      <c r="F194" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="195" spans="2:6">
       <c r="B195" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C195" s="11">
         <v>99</v>
@@ -13462,7 +13398,7 @@
     </row>
     <row r="196" spans="2:6">
       <c r="B196" s="20" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C196" s="11">
         <v>20</v>
@@ -13479,7 +13415,7 @@
     </row>
     <row r="197" spans="2:6">
       <c r="B197" s="20" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C197" s="11">
         <v>17</v>
@@ -13496,7 +13432,7 @@
     </row>
     <row r="198" spans="2:6">
       <c r="B198" s="20" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C198" s="11">
         <v>6</v>
@@ -13513,7 +13449,7 @@
     </row>
     <row r="199" spans="2:6">
       <c r="B199" s="20" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C199" s="11">
         <v>16</v>
@@ -13530,7 +13466,7 @@
     </row>
     <row r="200" spans="2:6">
       <c r="B200" s="20" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C200" s="11">
         <v>20</v>
@@ -13547,7 +13483,7 @@
     </row>
     <row r="201" spans="2:6">
       <c r="B201" s="20" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C201" s="11">
         <v>10</v>
@@ -13564,7 +13500,7 @@
     </row>
     <row r="202" spans="2:6">
       <c r="B202" s="20" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C202" s="11">
         <v>10</v>
@@ -13581,7 +13517,7 @@
     </row>
     <row r="203" spans="2:6">
       <c r="B203" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C203" s="11">
         <v>71</v>
@@ -13598,7 +13534,7 @@
     </row>
     <row r="204" spans="2:6">
       <c r="B204" s="20" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C204" s="11">
         <v>12</v>
@@ -13615,7 +13551,7 @@
     </row>
     <row r="205" spans="2:6">
       <c r="B205" s="20" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C205" s="11">
         <v>5</v>
@@ -13632,7 +13568,7 @@
     </row>
     <row r="206" spans="2:6">
       <c r="B206" s="20" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C206" s="11">
         <v>4</v>
@@ -13649,7 +13585,7 @@
     </row>
     <row r="207" spans="2:6">
       <c r="B207" s="20" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C207" s="11">
         <v>10</v>
@@ -13666,7 +13602,7 @@
     </row>
     <row r="208" spans="2:6">
       <c r="B208" s="20" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C208" s="11">
         <v>20</v>
@@ -13683,7 +13619,7 @@
     </row>
     <row r="209" spans="2:6">
       <c r="B209" s="20" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C209" s="11">
         <v>20</v>
@@ -13700,7 +13636,7 @@
     </row>
     <row r="210" spans="2:6">
       <c r="B210" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C210" s="11">
         <v>27</v>
@@ -13717,7 +13653,7 @@
     </row>
     <row r="211" spans="2:6">
       <c r="B211" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C211" s="11">
         <v>2</v>
@@ -13734,7 +13670,7 @@
     </row>
     <row r="212" spans="2:6">
       <c r="B212" s="20" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C212" s="11">
         <v>8</v>
@@ -13751,7 +13687,7 @@
     </row>
     <row r="213" spans="2:6">
       <c r="B213" s="20" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C213" s="11">
         <v>15</v>
@@ -13768,7 +13704,7 @@
     </row>
     <row r="214" spans="2:6">
       <c r="B214" s="20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C214" s="11">
         <v>2</v>
@@ -13785,7 +13721,7 @@
     </row>
     <row r="215" spans="2:6">
       <c r="B215" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C215" s="11">
         <v>197</v>
@@ -13812,1827 +13748,4 @@
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId8"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C4:R22"/>
-  <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5:R22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
-  <cols>
-    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.140625" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.140625" customWidth="1"/>
-    <col min="14" max="14" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13" customWidth="1"/>
-    <col min="18" max="18" width="11.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="4" spans="3:18" ht="15">
-      <c r="C4" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="D4" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-    </row>
-    <row r="5" spans="3:18" ht="25.5">
-      <c r="C5" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="D5" s="35">
-        <v>690</v>
-      </c>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
-      <c r="N5" s="41" t="s">
-        <v>103</v>
-      </c>
-      <c r="O5" s="42" t="s">
-        <v>83</v>
-      </c>
-      <c r="P5" s="42" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q5" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="R5" s="42" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="3:18" ht="15">
-      <c r="C6" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="D6" s="35">
-        <v>337</v>
-      </c>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="N6" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="O6" s="43">
-        <v>20</v>
-      </c>
-      <c r="P6" s="43">
-        <v>25</v>
-      </c>
-      <c r="Q6" s="43">
-        <v>60</v>
-      </c>
-      <c r="R6" s="43">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="3:18" ht="15">
-      <c r="C7" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="D7" s="35">
-        <v>749</v>
-      </c>
-      <c r="G7" s="36"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36"/>
-      <c r="N7" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="O7" s="43">
-        <v>17</v>
-      </c>
-      <c r="P7" s="43">
-        <v>24</v>
-      </c>
-      <c r="Q7" s="43">
-        <v>63</v>
-      </c>
-      <c r="R7" s="43">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="3:18" ht="15">
-      <c r="C8" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="D8" s="35">
-        <v>400</v>
-      </c>
-      <c r="G8" s="36"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="36"/>
-      <c r="N8" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="O8" s="43">
-        <v>6</v>
-      </c>
-      <c r="P8" s="43">
-        <v>17</v>
-      </c>
-      <c r="Q8" s="43">
-        <v>42</v>
-      </c>
-      <c r="R8" s="43">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="3:18" ht="15">
-      <c r="C9" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="35">
-        <v>599</v>
-      </c>
-      <c r="G9" s="36"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="36"/>
-      <c r="N9" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="O9" s="43">
-        <v>2</v>
-      </c>
-      <c r="P9" s="43">
-        <v>10</v>
-      </c>
-      <c r="Q9" s="43">
-        <v>23</v>
-      </c>
-      <c r="R9" s="43">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="3:18">
-      <c r="N10" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="O10" s="43">
-        <v>16</v>
-      </c>
-      <c r="P10" s="43">
-        <v>25</v>
-      </c>
-      <c r="Q10" s="43">
-        <v>62</v>
-      </c>
-      <c r="R10" s="43">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="3:18">
-      <c r="N11" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="O11" s="43">
-        <v>12</v>
-      </c>
-      <c r="P11" s="43">
-        <v>24</v>
-      </c>
-      <c r="Q11" s="43">
-        <v>40</v>
-      </c>
-      <c r="R11" s="43">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="3:18" ht="13.5" customHeight="1">
-      <c r="F12" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="G12" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="H12" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I12" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="J12" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="K12" s="38" t="s">
-        <v>94</v>
-      </c>
-      <c r="L12" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="N12" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="O12" s="43">
-        <v>5</v>
-      </c>
-      <c r="P12" s="43">
-        <v>16</v>
-      </c>
-      <c r="Q12" s="43">
-        <v>32</v>
-      </c>
-      <c r="R12" s="43">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="3:18" ht="15">
-      <c r="F13" s="40">
-        <v>1</v>
-      </c>
-      <c r="G13" s="40">
-        <v>0</v>
-      </c>
-      <c r="H13" s="36">
-        <v>236</v>
-      </c>
-      <c r="I13" s="36">
-        <v>493</v>
-      </c>
-      <c r="J13" s="36">
-        <v>0</v>
-      </c>
-      <c r="K13" s="36">
-        <v>0</v>
-      </c>
-      <c r="L13" s="36">
-        <v>0</v>
-      </c>
-      <c r="N13" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="O13" s="43">
-        <v>4</v>
-      </c>
-      <c r="P13" s="43">
-        <v>12</v>
-      </c>
-      <c r="Q13" s="43">
-        <v>30</v>
-      </c>
-      <c r="R13" s="43">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="3:18" ht="15">
-      <c r="F14" s="40">
-        <v>2</v>
-      </c>
-      <c r="G14" s="40">
-        <v>1</v>
-      </c>
-      <c r="H14" s="36">
-        <v>0</v>
-      </c>
-      <c r="I14" s="36">
-        <v>99</v>
-      </c>
-      <c r="J14" s="36">
-        <v>168</v>
-      </c>
-      <c r="K14" s="36">
-        <v>382</v>
-      </c>
-      <c r="L14" s="36">
-        <v>50</v>
-      </c>
-      <c r="N14" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="O14" s="43">
-        <v>10</v>
-      </c>
-      <c r="P14" s="43">
-        <v>20</v>
-      </c>
-      <c r="Q14" s="43">
-        <v>46</v>
-      </c>
-      <c r="R14" s="43">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="3:18" ht="15">
-      <c r="F15" s="40">
-        <v>2</v>
-      </c>
-      <c r="G15" s="40">
-        <v>2</v>
-      </c>
-      <c r="H15" s="36">
-        <v>0</v>
-      </c>
-      <c r="I15" s="36">
-        <v>71</v>
-      </c>
-      <c r="J15" s="36">
-        <v>114</v>
-      </c>
-      <c r="K15" s="36">
-        <v>253</v>
-      </c>
-      <c r="L15" s="36">
-        <v>70</v>
-      </c>
-      <c r="N15" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="O15" s="43">
-        <v>8</v>
-      </c>
-      <c r="P15" s="43">
-        <v>14</v>
-      </c>
-      <c r="Q15" s="43">
-        <v>30</v>
-      </c>
-      <c r="R15" s="43">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="3:18" ht="15">
-      <c r="F16" s="40">
-        <v>2</v>
-      </c>
-      <c r="G16" s="40">
-        <v>3</v>
-      </c>
-      <c r="H16" s="36">
-        <v>0</v>
-      </c>
-      <c r="I16" s="36">
-        <v>27</v>
-      </c>
-      <c r="J16" s="36">
-        <v>55</v>
-      </c>
-      <c r="K16" s="36">
-        <v>114</v>
-      </c>
-      <c r="L16" s="36">
-        <v>100</v>
-      </c>
-      <c r="N16" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="O16" s="43">
-        <v>15</v>
-      </c>
-      <c r="P16" s="43">
-        <v>22</v>
-      </c>
-      <c r="Q16" s="43">
-        <v>34</v>
-      </c>
-      <c r="R16" s="43">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="6:18" ht="15">
-      <c r="F17" s="40">
-        <v>3</v>
-      </c>
-      <c r="G17" s="40">
-        <v>0</v>
-      </c>
-      <c r="H17" s="36">
-        <v>363</v>
-      </c>
-      <c r="I17" s="36">
-        <v>0</v>
-      </c>
-      <c r="J17" s="36">
-        <v>0</v>
-      </c>
-      <c r="K17" s="36">
-        <v>0</v>
-      </c>
-      <c r="L17" s="36">
-        <v>180</v>
-      </c>
-      <c r="N17" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="O17" s="43">
-        <v>20</v>
-      </c>
-      <c r="P17" s="43">
-        <v>18</v>
-      </c>
-      <c r="Q17" s="43">
-        <v>41</v>
-      </c>
-      <c r="R17" s="43">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="6:18">
-      <c r="N18" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="O18" s="43">
-        <v>20</v>
-      </c>
-      <c r="P18" s="43">
-        <v>28</v>
-      </c>
-      <c r="Q18" s="43">
-        <v>64</v>
-      </c>
-      <c r="R18" s="43">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="6:18">
-      <c r="N19" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="O19" s="43">
-        <v>10</v>
-      </c>
-      <c r="P19" s="43">
-        <v>24</v>
-      </c>
-      <c r="Q19" s="43">
-        <v>51</v>
-      </c>
-      <c r="R19" s="43">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="6:18">
-      <c r="N20" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="O20" s="43">
-        <v>2</v>
-      </c>
-      <c r="P20" s="43">
-        <v>9</v>
-      </c>
-      <c r="Q20" s="43">
-        <v>27</v>
-      </c>
-      <c r="R20" s="43">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="6:18">
-      <c r="N21" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="O21" s="43">
-        <v>10</v>
-      </c>
-      <c r="P21" s="43">
-        <v>25</v>
-      </c>
-      <c r="Q21" s="43">
-        <v>40</v>
-      </c>
-      <c r="R21" s="43">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="6:18">
-      <c r="N22" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="O22" s="43">
-        <v>20</v>
-      </c>
-      <c r="P22" s="43">
-        <v>24</v>
-      </c>
-      <c r="Q22" s="43">
-        <v>64</v>
-      </c>
-      <c r="R22" s="43">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:H65"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48:G65"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
-  <sheetData>
-    <row r="2" spans="2:8" ht="13.5" thickBot="1"/>
-    <row r="3" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" ht="45">
-      <c r="B4" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="25">
-        <f>G4+H4</f>
-        <v>18</v>
-      </c>
-      <c r="G4" s="25">
-        <v>8</v>
-      </c>
-      <c r="H4" s="26">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" ht="75">
-      <c r="B5" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="5">
-        <f t="shared" ref="F5:F40" si="0">G5+H5</f>
-        <v>12</v>
-      </c>
-      <c r="G5" s="5">
-        <v>10</v>
-      </c>
-      <c r="H5" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" ht="45">
-      <c r="B6" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="5">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="G6" s="5">
-        <v>2</v>
-      </c>
-      <c r="H6" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" ht="45">
-      <c r="B7" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="5">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="G7" s="5">
-        <v>15</v>
-      </c>
-      <c r="H7" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" ht="45">
-      <c r="B8" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="5">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="G8" s="5">
-        <v>4</v>
-      </c>
-      <c r="H8" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" ht="60">
-      <c r="B9" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="5">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="G9" s="5">
-        <v>25</v>
-      </c>
-      <c r="H9" s="6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" ht="60">
-      <c r="B10" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="5">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="G10" s="5">
-        <v>16</v>
-      </c>
-      <c r="H10" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" ht="60">
-      <c r="B11" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="5">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="G11" s="5">
-        <v>20</v>
-      </c>
-      <c r="H11" s="6">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" ht="45">
-      <c r="B12" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="5">
-        <f t="shared" si="0"/>
-        <v>290</v>
-      </c>
-      <c r="G12" s="5">
-        <v>150</v>
-      </c>
-      <c r="H12" s="6">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" ht="45">
-      <c r="B13" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="5">
-        <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-      <c r="G13" s="5">
-        <v>35</v>
-      </c>
-      <c r="H13" s="6">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" ht="45">
-      <c r="B14" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" s="5">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="G14" s="5">
-        <v>25</v>
-      </c>
-      <c r="H14" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" ht="90">
-      <c r="B15" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="5">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="G15" s="5">
-        <v>10</v>
-      </c>
-      <c r="H15" s="6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" ht="45">
-      <c r="B16" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" s="5">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="G16" s="5">
-        <v>2</v>
-      </c>
-      <c r="H16" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" ht="75">
-      <c r="B17" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" s="5">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="G17" s="5">
-        <v>4</v>
-      </c>
-      <c r="H17" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" ht="75">
-      <c r="B18" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F18" s="5">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="G18" s="5">
-        <v>6</v>
-      </c>
-      <c r="H18" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" ht="60">
-      <c r="B19" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F19" s="5">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="G19" s="5">
-        <v>45</v>
-      </c>
-      <c r="H19" s="6">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" ht="30">
-      <c r="B20" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F20" s="5">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="G20" s="5">
-        <v>4</v>
-      </c>
-      <c r="H20" s="6">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" ht="75">
-      <c r="B21" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="F21" s="5">
-        <f t="shared" si="0"/>
-        <v>99</v>
-      </c>
-      <c r="G21" s="5">
-        <v>52</v>
-      </c>
-      <c r="H21" s="6">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" ht="75">
-      <c r="B22" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F22" s="5">
-        <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-      <c r="G22" s="5">
-        <v>36</v>
-      </c>
-      <c r="H22" s="6">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" ht="75">
-      <c r="B23" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F23" s="5">
-        <f t="shared" si="0"/>
-        <v>98</v>
-      </c>
-      <c r="G23" s="5">
-        <v>55</v>
-      </c>
-      <c r="H23" s="6">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" ht="75">
-      <c r="B24" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="F24" s="5">
-        <f t="shared" si="0"/>
-        <v>382</v>
-      </c>
-      <c r="G24" s="5">
-        <v>195</v>
-      </c>
-      <c r="H24" s="6">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" ht="75">
-      <c r="B25" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F25" s="5">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="G25" s="5">
-        <v>25</v>
-      </c>
-      <c r="H25" s="6">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" ht="75">
-      <c r="B26" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="F26" s="5">
-        <f t="shared" si="0"/>
-        <v>71</v>
-      </c>
-      <c r="G26" s="5">
-        <v>30</v>
-      </c>
-      <c r="H26" s="6">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" ht="75">
-      <c r="B27" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F27" s="5">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="G27" s="5">
-        <v>19</v>
-      </c>
-      <c r="H27" s="6">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" ht="75">
-      <c r="B28" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F28" s="5">
-        <f t="shared" si="0"/>
-        <v>64</v>
-      </c>
-      <c r="G28" s="5">
-        <v>28</v>
-      </c>
-      <c r="H28" s="6">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" ht="75">
-      <c r="B29" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="F29" s="5">
-        <f t="shared" si="0"/>
-        <v>253</v>
-      </c>
-      <c r="G29" s="5">
-        <v>121</v>
-      </c>
-      <c r="H29" s="6">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" ht="75">
-      <c r="B30" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F30" s="5">
-        <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-      <c r="G30" s="5">
-        <v>35</v>
-      </c>
-      <c r="H30" s="6">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" ht="75">
-      <c r="B31" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="F31" s="5">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="G31" s="5">
-        <v>12</v>
-      </c>
-      <c r="H31" s="6">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" ht="75">
-      <c r="B32" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F32" s="5">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="G32" s="5">
-        <v>12</v>
-      </c>
-      <c r="H32" s="6">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" ht="75">
-      <c r="B33" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F33" s="5">
-        <f>G33+H33</f>
-        <v>30</v>
-      </c>
-      <c r="G33" s="5">
-        <v>16</v>
-      </c>
-      <c r="H33" s="6">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" ht="75">
-      <c r="B34" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="F34" s="5">
-        <f>G34+H34</f>
-        <v>114</v>
-      </c>
-      <c r="G34" s="5">
-        <v>54</v>
-      </c>
-      <c r="H34" s="6">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" ht="75">
-      <c r="B35" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F35" s="5">
-        <f>G35+H35</f>
-        <v>100</v>
-      </c>
-      <c r="G35" s="5">
-        <v>50</v>
-      </c>
-      <c r="H35" s="6">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" ht="45">
-      <c r="B36" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F36" s="5">
-        <f t="shared" si="0"/>
-        <v>180</v>
-      </c>
-      <c r="G36" s="5">
-        <v>85</v>
-      </c>
-      <c r="H36" s="6">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" ht="30">
-      <c r="B37" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F37" s="5">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="G37" s="5">
-        <v>10</v>
-      </c>
-      <c r="H37" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" ht="30">
-      <c r="B38" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F38" s="5">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="G38" s="5">
-        <v>14</v>
-      </c>
-      <c r="H38" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" ht="30">
-      <c r="B39" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F39" s="5">
-        <f t="shared" si="0"/>
-        <v>300</v>
-      </c>
-      <c r="G39" s="5">
-        <v>150</v>
-      </c>
-      <c r="H39" s="6">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" ht="30.75" thickBot="1">
-      <c r="B40" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="C40" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="D40" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="E40" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="F40" s="29">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="G40" s="29">
-        <v>16</v>
-      </c>
-      <c r="H40" s="30">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" ht="31.5">
-      <c r="B48" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E48" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="F48" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="G48" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="49" spans="2:7" ht="15">
-      <c r="B49" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C49" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D49" s="23">
-        <v>20</v>
-      </c>
-      <c r="E49" s="32">
-        <v>25</v>
-      </c>
-      <c r="F49" s="32">
-        <v>60</v>
-      </c>
-      <c r="G49" s="32">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="2:7" ht="15">
-      <c r="B50" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C50" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="D50" s="23">
-        <v>17</v>
-      </c>
-      <c r="E50" s="32">
-        <v>24</v>
-      </c>
-      <c r="F50" s="32">
-        <v>63</v>
-      </c>
-      <c r="G50" s="32">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51" spans="2:7" ht="15">
-      <c r="B51" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C51" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D51" s="23">
-        <v>6</v>
-      </c>
-      <c r="E51" s="32">
-        <v>17</v>
-      </c>
-      <c r="F51" s="32">
-        <v>42</v>
-      </c>
-      <c r="G51" s="32">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" spans="2:7" ht="15">
-      <c r="B52" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C52" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="D52" s="23">
-        <v>16</v>
-      </c>
-      <c r="E52" s="32">
-        <v>25</v>
-      </c>
-      <c r="F52" s="32">
-        <v>62</v>
-      </c>
-      <c r="G52" s="32">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="2:7" ht="15">
-      <c r="B53" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C53" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="D53" s="23">
-        <v>20</v>
-      </c>
-      <c r="E53" s="32">
-        <v>28</v>
-      </c>
-      <c r="F53" s="32">
-        <v>64</v>
-      </c>
-      <c r="G53" s="32">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="54" spans="2:7" ht="15">
-      <c r="B54" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C54" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="D54" s="23">
-        <v>10</v>
-      </c>
-      <c r="E54" s="32">
-        <v>24</v>
-      </c>
-      <c r="F54" s="32">
-        <v>51</v>
-      </c>
-      <c r="G54" s="32">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="2:7" ht="15">
-      <c r="B55" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C55" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="D55" s="23">
-        <v>10</v>
-      </c>
-      <c r="E55" s="32">
-        <v>25</v>
-      </c>
-      <c r="F55" s="32">
-        <v>40</v>
-      </c>
-      <c r="G55" s="32">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="56" spans="2:7" ht="15">
-      <c r="B56" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="C56" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="D56" s="23">
-        <v>12</v>
-      </c>
-      <c r="E56" s="32">
-        <v>24</v>
-      </c>
-      <c r="F56" s="32">
-        <v>40</v>
-      </c>
-      <c r="G56" s="32">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="57" spans="2:7" ht="15">
-      <c r="B57" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="C57" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="D57" s="23">
-        <v>5</v>
-      </c>
-      <c r="E57" s="32">
-        <v>16</v>
-      </c>
-      <c r="F57" s="32">
-        <v>32</v>
-      </c>
-      <c r="G57" s="32">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="2:7" ht="15">
-      <c r="B58" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="C58" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="D58" s="23">
-        <v>4</v>
-      </c>
-      <c r="E58" s="32">
-        <v>12</v>
-      </c>
-      <c r="F58" s="32">
-        <v>30</v>
-      </c>
-      <c r="G58" s="32">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="59" spans="2:7" ht="15">
-      <c r="B59" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="C59" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="D59" s="23">
-        <v>10</v>
-      </c>
-      <c r="E59" s="32">
-        <v>20</v>
-      </c>
-      <c r="F59" s="32">
-        <v>46</v>
-      </c>
-      <c r="G59" s="32">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="60" spans="2:7" ht="15">
-      <c r="B60" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="C60" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="D60" s="23">
-        <v>20</v>
-      </c>
-      <c r="E60" s="32">
-        <v>18</v>
-      </c>
-      <c r="F60" s="32">
-        <v>41</v>
-      </c>
-      <c r="G60" s="32">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="61" spans="2:7" ht="15">
-      <c r="B61" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="C61" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="D61" s="23">
-        <v>20</v>
-      </c>
-      <c r="E61" s="32">
-        <v>24</v>
-      </c>
-      <c r="F61" s="32">
-        <v>64</v>
-      </c>
-      <c r="G61" s="32">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="62" spans="2:7" ht="15">
-      <c r="B62" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="C62" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="D62" s="23">
-        <v>2</v>
-      </c>
-      <c r="E62" s="32">
-        <v>10</v>
-      </c>
-      <c r="F62" s="32">
-        <v>23</v>
-      </c>
-      <c r="G62" s="32">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="63" spans="2:7" ht="15">
-      <c r="B63" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="C63" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="D63" s="23">
-        <v>8</v>
-      </c>
-      <c r="E63" s="32">
-        <v>14</v>
-      </c>
-      <c r="F63" s="32">
-        <v>30</v>
-      </c>
-      <c r="G63" s="32">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="64" spans="2:7" ht="15">
-      <c r="B64" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="C64" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="D64" s="23">
-        <v>15</v>
-      </c>
-      <c r="E64" s="32">
-        <v>22</v>
-      </c>
-      <c r="F64" s="32">
-        <v>34</v>
-      </c>
-      <c r="G64" s="32">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="65" spans="2:7" ht="15">
-      <c r="B65" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="C65" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="D65" s="23">
-        <v>2</v>
-      </c>
-      <c r="E65" s="32">
-        <v>9</v>
-      </c>
-      <c r="F65" s="32">
-        <v>27</v>
-      </c>
-      <c r="G65" s="32">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>